--- a/BackTest/2019-11-02 BackTest CMT.xlsx
+++ b/BackTest/2019-11-02 BackTest CMT.xlsx
@@ -6261,17 +6261,13 @@
         <v>23.74333333333331</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K168" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
@@ -6308,9 +6304,7 @@
       <c r="J169" t="n">
         <v>23.1</v>
       </c>
-      <c r="K169" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -6349,11 +6343,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>23</v>
-      </c>
-      <c r="K170" t="n">
         <v>23.1</v>
       </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6394,9 +6386,7 @@
       <c r="J171" t="n">
         <v>23.1</v>
       </c>
-      <c r="K171" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,9 +6427,7 @@
       <c r="J172" t="n">
         <v>23.1</v>
       </c>
-      <c r="K172" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,11 +6466,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K173" t="n">
-        <v>23.1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6515,17 +6501,13 @@
         <v>23.6533333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K174" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6558,17 +6540,13 @@
         <v>23.64666666666664</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K175" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6601,17 +6579,13 @@
         <v>23.64166666666664</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K176" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6644,17 +6618,13 @@
         <v>23.63499999999997</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K177" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6693,11 +6663,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K178" t="n">
-        <v>23.1</v>
-      </c>
+        <v>23.4</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6736,11 +6704,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K179" t="n">
-        <v>23.1</v>
-      </c>
+        <v>23.5</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6773,17 +6739,13 @@
         <v>23.60833333333331</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K180" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6816,17 +6778,13 @@
         <v>23.60333333333331</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K181" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6859,17 +6817,13 @@
         <v>23.59333333333331</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K182" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,9 +6862,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6949,9 +6901,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6990,9 +6940,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7025,17 +6973,13 @@
         <v>23.55333333333331</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K186" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,17 +7012,13 @@
         <v>23.54666666666665</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K187" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7111,17 +7051,13 @@
         <v>23.54333333333332</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K188" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7154,17 +7090,13 @@
         <v>23.53499999999998</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K189" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,17 +7129,13 @@
         <v>23.53166666666665</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K190" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7240,17 +7168,13 @@
         <v>23.51999999999999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K191" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7289,9 +7213,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7330,9 +7252,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7371,9 +7291,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7412,9 +7330,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7447,17 +7363,13 @@
         <v>23.46833333333332</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K196" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7490,17 +7402,13 @@
         <v>23.45499999999999</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K197" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7533,17 +7441,13 @@
         <v>23.44666666666665</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K198" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7576,17 +7480,13 @@
         <v>23.43833333333332</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K199" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7619,17 +7519,13 @@
         <v>23.42833333333332</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K200" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7662,17 +7558,13 @@
         <v>23.42333333333332</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K201" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7705,17 +7597,13 @@
         <v>23.41499999999999</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K202" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7754,9 +7642,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7789,17 +7675,13 @@
         <v>23.40166666666666</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K204" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7832,17 +7714,13 @@
         <v>23.39499999999999</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K205" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7881,9 +7759,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,9 +7798,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,9 +7837,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8004,9 +7876,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8045,9 +7915,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8086,9 +7954,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8127,9 +7993,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8168,9 +8032,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,9 +8071,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,9 +8110,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8291,9 +8149,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8332,9 +8188,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,9 +8227,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8414,9 +8266,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8455,9 +8305,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8496,9 +8344,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,9 +8383,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8578,9 +8422,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8619,9 +8461,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,9 +8500,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8701,9 +8539,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8742,9 +8578,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8783,9 +8617,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8824,9 +8656,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8865,9 +8695,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,9 +8734,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8947,9 +8773,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8988,9 +8812,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9029,9 +8851,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9070,9 +8890,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9111,9 +8929,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,9 +8968,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9193,9 +9007,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9234,9 +9046,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9275,9 +9085,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9316,9 +9124,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9357,9 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9398,9 +9202,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9433,17 +9235,13 @@
         <v>23.50333333333333</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K244" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9476,17 +9274,13 @@
         <v>23.50666666666667</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K245" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9519,17 +9313,13 @@
         <v>23.505</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K246" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9568,9 +9358,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9603,17 +9391,13 @@
         <v>23.505</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K248" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9646,17 +9430,13 @@
         <v>23.505</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K249" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9689,17 +9469,13 @@
         <v>23.5</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K250" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9738,9 +9514,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9779,9 +9553,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9820,9 +9592,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9861,9 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9902,9 +9670,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9943,9 +9709,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9984,9 +9748,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10025,9 +9787,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10066,9 +9826,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10107,9 +9865,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10148,9 +9904,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10189,9 +9943,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10230,9 +9982,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10271,9 +10021,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10312,9 +10060,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10353,9 +10099,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10394,9 +10138,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10435,9 +10177,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10476,9 +10216,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10517,9 +10255,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10558,9 +10294,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10599,9 +10333,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10640,9 +10372,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10681,9 +10411,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10722,9 +10450,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10763,9 +10489,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10804,9 +10528,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10845,9 +10567,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10886,9 +10606,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10927,9 +10645,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10968,9 +10684,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11009,9 +10723,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11050,9 +10762,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11091,9 +10801,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11132,9 +10840,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11170,20 +10876,16 @@
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11214,14 +10916,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11255,14 +10951,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11296,14 +10986,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11334,17 +11018,11 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11378,14 +11056,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11419,14 +11091,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11457,19 +11123,13 @@
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
-        <v>1.042619047619048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -11498,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
@@ -11778,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
@@ -14018,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest CMT.xlsx
+++ b/BackTest/2019-11-02 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,14 +649,10 @@
         <v>308560.9390000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -689,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -728,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -1094,7 +1078,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1127,7 +1111,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1193,7 +1177,7 @@
         <v>348319.95615</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1226,7 +1210,7 @@
         <v>254121.36155</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1259,7 +1243,7 @@
         <v>254121.36155</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1292,7 +1276,7 @@
         <v>349694.91475</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1325,7 +1309,7 @@
         <v>349054.63285</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1358,7 +1342,7 @@
         <v>216687.10645</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1391,7 +1375,7 @@
         <v>216687.10645</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1457,7 +1441,7 @@
         <v>617185.31775</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1490,7 +1474,7 @@
         <v>375898.44695</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1523,7 +1507,7 @@
         <v>460990.89145</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1556,7 +1540,7 @@
         <v>494457.03825</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1589,7 +1573,7 @@
         <v>494457.03825</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1622,7 +1606,7 @@
         <v>566864.57845</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1655,7 +1639,7 @@
         <v>512524.08825</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1688,7 +1672,7 @@
         <v>505115.16045</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1721,7 +1705,7 @@
         <v>507142.91195</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1754,7 +1738,7 @@
         <v>987190.3952309524</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1787,7 +1771,7 @@
         <v>512980.2174309524</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1820,7 +1804,7 @@
         <v>519947.5554309524</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1853,7 +1837,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1886,7 +1870,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1919,7 +1903,7 @@
         <v>76362.09893095243</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1952,7 +1936,7 @@
         <v>77962.09893095243</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1985,7 +1969,7 @@
         <v>77861.96893095243</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2018,7 +2002,7 @@
         <v>-87148.31906904757</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2051,7 +2035,7 @@
         <v>-76408.36536904758</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2084,7 +2068,7 @@
         <v>-76408.36536904758</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2117,7 +2101,7 @@
         <v>-104160.5052690476</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2150,7 +2134,7 @@
         <v>-76280.50526904757</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2183,7 +2167,7 @@
         <v>-75924.06266904758</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2216,7 +2200,7 @@
         <v>-79311.96386904757</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2249,7 +2233,7 @@
         <v>-79311.96386904757</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2282,7 +2266,7 @@
         <v>-79311.96386904757</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2315,7 +2299,7 @@
         <v>-79301.96386904757</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2348,7 +2332,7 @@
         <v>-226640.4413690476</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2381,7 +2365,7 @@
         <v>-225838.4536690476</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2414,7 +2398,7 @@
         <v>-227449.0708690476</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2447,7 +2431,7 @@
         <v>-256254.6675690476</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2480,7 +2464,7 @@
         <v>-255449.3589690476</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2513,7 +2497,7 @@
         <v>-331848.9136690476</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2546,7 +2530,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2579,7 +2563,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2612,7 +2596,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2645,7 +2629,7 @@
         <v>-410885.6950690476</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2678,7 +2662,7 @@
         <v>-385308.5676690476</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +2695,7 @@
         <v>-385308.5676690476</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2909,7 +2893,7 @@
         <v>-287073.8789690476</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2942,7 +2926,7 @@
         <v>-258428.2703690476</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2975,7 +2959,7 @@
         <v>-259080.2703690476</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3008,7 +2992,7 @@
         <v>-259080.2703690476</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3041,7 +3025,7 @@
         <v>-261010.2703690476</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3074,7 +3058,7 @@
         <v>-261010.2703690476</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3107,7 +3091,7 @@
         <v>-261010.2703690476</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3140,7 +3124,7 @@
         <v>-261010.2703690476</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3239,7 +3223,7 @@
         <v>-293409.1788690476</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3272,7 +3256,7 @@
         <v>-293173.8085690476</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3305,7 +3289,7 @@
         <v>-293173.8085690476</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4922,7 +4906,7 @@
         <v>-490888.6099932722</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5153,7 +5137,7 @@
         <v>-498708.8269932722</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5285,7 +5269,7 @@
         <v>-522856.2585932722</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5318,7 +5302,7 @@
         <v>-542855.9562932722</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5582,7 +5566,7 @@
         <v>-824306.6786932723</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5648,7 +5632,7 @@
         <v>-785309.7328932723</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5681,7 +5665,7 @@
         <v>-785309.7328932723</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5714,7 +5698,7 @@
         <v>-840104.1944932723</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5912,7 +5896,7 @@
         <v>-964721.3614932724</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5945,7 +5929,7 @@
         <v>-964302.9514932723</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5978,7 +5962,7 @@
         <v>-964302.9514932723</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6011,7 +5995,7 @@
         <v>-966393.9315932724</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6044,7 +6028,7 @@
         <v>-966229.0081932724</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6077,7 +6061,7 @@
         <v>-983229.0081932724</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6110,7 +6094,7 @@
         <v>-1002264.157793272</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6176,7 +6160,7 @@
         <v>-1012725.936193272</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6242,7 +6226,7 @@
         <v>-997125.9361932724</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6275,7 +6259,7 @@
         <v>-980856.8559932724</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6308,7 +6292,7 @@
         <v>-981111.4102932723</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6341,7 +6325,7 @@
         <v>-1002483.752193272</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6374,7 +6358,7 @@
         <v>-1002229.197893272</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7628,10 +7612,14 @@
         <v>-1669824.991193272</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
@@ -7661,11 +7649,19 @@
         <v>-1669824.991193272</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="J220" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +7690,19 @@
         <v>-1646343.165393272</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +7731,19 @@
         <v>-1646343.165393272</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J222" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +7772,19 @@
         <v>-1652186.197793272</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J223" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +7813,19 @@
         <v>-1652703.706193272</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +7854,19 @@
         <v>-1665181.546893272</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +7895,19 @@
         <v>-1665181.546893272</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>23</v>
+      </c>
+      <c r="J226" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7892,11 +7936,19 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>23</v>
+      </c>
+      <c r="J227" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7925,11 +7977,19 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7958,15 +8018,17 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>23.1</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -7997,12 +8059,14 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>23.1</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8036,12 +8100,14 @@
         <v>-1702520.715093272</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>23.1</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8075,12 +8141,14 @@
         <v>-1702220.715093272</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>23</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8114,12 +8182,14 @@
         <v>-1702220.715093272</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>23.1</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8153,12 +8223,14 @@
         <v>-1695209.715093272</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>23.1</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8192,12 +8264,14 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>23.2</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8231,12 +8305,14 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>23.4</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8270,12 +8346,14 @@
         <v>-1316993.865993272</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>23.4</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8309,10 +8387,14 @@
         <v>-1319905.864993272</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J238" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,7 +8431,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8386,7 +8470,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8423,7 +8509,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,7 +8548,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8497,7 +8587,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8534,7 +8626,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8568,12 +8662,12 @@
         <v>-1366195.581293272</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,12 +8701,12 @@
         <v>-1314587.219093272</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8646,12 +8740,12 @@
         <v>-1314587.219093272</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,12 +8779,12 @@
         <v>-1314587.219093272</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8724,12 +8818,12 @@
         <v>-1285191.103493272</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,7 +8860,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8803,7 +8899,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8840,7 +8938,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8877,7 +8977,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8914,7 +9016,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8951,7 +9055,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8988,7 +9094,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9025,7 +9133,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9062,7 +9172,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9099,7 +9211,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9136,7 +9250,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9173,7 +9289,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9210,7 +9328,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9244,12 +9364,12 @@
         <v>-1233550.758493272</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,12 +9403,12 @@
         <v>-1213350.758493272</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9322,12 +9442,12 @@
         <v>-1256046.628993272</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9361,12 +9481,12 @@
         <v>-1247353.628993272</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9403,7 +9523,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9440,7 +9562,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9477,7 +9601,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,7 +9640,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9551,7 +9679,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9585,12 +9715,12 @@
         <v>-983987.098693272</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9624,12 +9754,12 @@
         <v>-983987.098693272</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9663,12 +9793,12 @@
         <v>-953987.098693272</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9702,12 +9832,12 @@
         <v>-961926.495493272</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9741,12 +9871,12 @@
         <v>-838505.4955932719</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9780,12 +9910,12 @@
         <v>-965990.715693272</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9819,12 +9949,12 @@
         <v>-965990.715693272</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9858,12 +9988,12 @@
         <v>-965980.715693272</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,7 +10030,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9937,7 +10069,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9974,7 +10108,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10011,7 +10147,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10048,7 +10186,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10085,7 +10225,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10122,7 +10264,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10159,7 +10303,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10196,7 +10342,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10233,7 +10381,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10270,7 +10420,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10307,7 +10459,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10344,7 +10498,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,7 +10537,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10418,7 +10576,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10452,12 +10612,12 @@
         <v>-1095456.663793272</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10494,7 +10654,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10531,7 +10693,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10568,7 +10732,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10605,7 +10771,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10642,7 +10810,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10679,7 +10849,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,7 +10888,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10753,7 +10927,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10790,7 +10966,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10827,7 +11005,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10864,7 +11044,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10901,7 +11083,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,7 +11122,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10975,7 +11161,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11012,7 +11200,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11049,7 +11239,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11086,7 +11278,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11123,7 +11317,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11160,7 +11356,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11197,7 +11395,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11234,7 +11434,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11271,7 +11473,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11308,7 +11512,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11345,7 +11551,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11382,7 +11590,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11419,7 +11629,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11453,12 +11665,12 @@
         <v>-641666.8540932722</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11495,7 +11707,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11532,7 +11746,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11569,7 +11785,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11606,7 +11824,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11643,7 +11863,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11680,7 +11902,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11717,7 +11941,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11754,7 +11980,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11791,7 +12019,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11828,7 +12058,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11865,7 +12097,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11902,7 +12136,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11939,7 +12175,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11976,7 +12214,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12013,7 +12253,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12050,7 +12292,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12087,7 +12331,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12124,7 +12370,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12161,7 +12409,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12198,7 +12448,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12235,7 +12487,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12272,7 +12526,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12309,7 +12565,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12346,7 +12604,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12383,7 +12643,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12420,7 +12682,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12457,7 +12721,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12494,7 +12760,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12531,7 +12799,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12568,7 +12838,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12605,7 +12877,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12642,7 +12916,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12679,7 +12955,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12716,7 +12994,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12753,7 +13033,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12790,7 +13072,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12827,7 +13111,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12864,7 +13150,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12901,7 +13189,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12938,7 +13228,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12975,7 +13267,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13012,7 +13306,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13049,7 +13345,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13086,7 +13384,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13120,10 +13420,12 @@
         <v>-1297370.088962693</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13160,7 +13462,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13194,10 +13498,14 @@
         <v>-1597809.485862693</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J369" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13231,10 +13539,12 @@
         <v>-1597809.485862693</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13271,7 +13581,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13308,7 +13620,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13345,7 +13659,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13379,10 +13695,12 @@
         <v>-1627943.372862693</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13419,7 +13737,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13456,7 +13776,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13493,7 +13815,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13530,7 +13854,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13567,7 +13893,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13604,7 +13932,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13641,7 +13971,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13678,7 +14010,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13715,7 +14049,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13752,7 +14088,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13789,7 +14127,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13826,7 +14166,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13863,7 +14205,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13900,7 +14244,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13937,7 +14283,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13974,7 +14322,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14011,7 +14361,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14048,7 +14400,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14085,7 +14439,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14122,7 +14478,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14159,7 +14517,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14196,7 +14556,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14233,7 +14595,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14270,7 +14634,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14307,7 +14673,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14344,7 +14712,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14381,7 +14751,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14418,7 +14790,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14455,7 +14829,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14492,7 +14868,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14529,7 +14907,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14566,7 +14946,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14603,7 +14985,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14640,7 +15024,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14677,7 +15063,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14714,7 +15102,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14751,7 +15141,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14788,7 +15180,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14825,7 +15219,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14862,7 +15258,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14899,7 +15297,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14936,7 +15336,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14973,7 +15375,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15010,7 +15414,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15047,7 +15453,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15084,7 +15492,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15121,7 +15531,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15158,7 +15570,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15195,7 +15609,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15232,7 +15648,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15269,7 +15687,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15306,7 +15726,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15343,7 +15765,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15380,7 +15804,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15417,7 +15843,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15454,7 +15882,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15491,7 +15921,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15528,7 +15960,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15565,7 +15999,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15602,7 +16038,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15639,7 +16077,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15676,7 +16116,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15713,7 +16155,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15750,7 +16194,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15762,6 +16208,6 @@
       <c r="M438" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest CMT.xlsx
+++ b/BackTest/2019-11-02 BackTest CMT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>365241.3210000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>303753.9403000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>350415.42065</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>350415.42065</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>362959.6648500001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>442850.1029500001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>449274.6132500001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>216687.10645</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>617185.31775</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>617185.31775</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>460990.89145</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>494457.03825</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>494457.03825</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>566864.57845</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>512524.08825</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>505115.16045</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>507142.91195</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>987190.3952309524</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>512980.2174309524</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>519947.5554309524</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>76362.09893095243</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>77962.09893095243</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>77861.96893095243</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-87148.31906904757</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-76408.36536904758</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-76408.36536904758</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-104160.5052690476</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-76280.50526904757</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-75924.06266904758</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-79311.96386904757</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-79311.96386904757</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-79311.96386904757</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-79301.96386904757</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-226640.4413690476</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-225838.4536690476</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-227449.0708690476</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-256254.6675690476</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-255449.3589690476</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-331848.9136690476</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-410885.6950690476</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-385308.5676690476</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-385308.5676690476</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-287073.8789690476</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-258428.2703690476</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-259080.2703690476</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-259080.2703690476</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-261010.2703690476</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-261010.2703690476</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-261010.2703690476</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-261010.2703690476</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-293409.1788690476</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-293173.8085690476</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-293173.8085690476</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-542855.9562932722</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -7612,14 +7612,10 @@
         <v>-1669824.991193272</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J219" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
@@ -7649,19 +7645,11 @@
         <v>-1669824.991193272</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J220" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7690,347 +7678,281 @@
         <v>-1646343.165393272</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C222" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E222" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1528.7123</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1646343.165393272</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
         <v>23.2</v>
       </c>
-      <c r="J221" t="n">
+      <c r="C223" t="n">
         <v>23.2</v>
       </c>
-      <c r="K221" t="inlineStr">
+      <c r="D223" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>5843.0324</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1652186.197793272</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>517.5084000000001</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1652703.706193272</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>23</v>
+      </c>
+      <c r="D225" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>23</v>
+      </c>
+      <c r="F225" t="n">
+        <v>12477.8407</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1665181.546893272</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>23</v>
+      </c>
+      <c r="C226" t="n">
+        <v>23</v>
+      </c>
+      <c r="D226" t="n">
+        <v>23</v>
+      </c>
+      <c r="E226" t="n">
+        <v>23</v>
+      </c>
+      <c r="F226" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1665181.546893272</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1664181.546893272</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>23</v>
+      </c>
+      <c r="F228" t="n">
+        <v>107072.913</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1664181.546893272</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>23</v>
+      </c>
+      <c r="C229" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F229" t="n">
+        <v>71273.4238</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1664181.546893272</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C222" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D222" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E222" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1528.7123</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1646343.165393272</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J222" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="C223" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="D223" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="E223" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F223" t="n">
-        <v>5843.0324</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1652186.197793272</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J223" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C224" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D224" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E224" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F224" t="n">
-        <v>517.5084000000001</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1652703.706193272</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J224" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C225" t="n">
-        <v>23</v>
-      </c>
-      <c r="D225" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E225" t="n">
-        <v>23</v>
-      </c>
-      <c r="F225" t="n">
-        <v>12477.8407</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1665181.546893272</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="J225" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>23</v>
-      </c>
-      <c r="C226" t="n">
-        <v>23</v>
-      </c>
-      <c r="D226" t="n">
-        <v>23</v>
-      </c>
-      <c r="E226" t="n">
-        <v>23</v>
-      </c>
-      <c r="F226" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1665181.546893272</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>23</v>
-      </c>
-      <c r="J226" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C227" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E227" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1664181.546893272</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>23</v>
-      </c>
-      <c r="J227" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C228" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D228" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E228" t="n">
-        <v>23</v>
-      </c>
-      <c r="F228" t="n">
-        <v>107072.913</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1664181.546893272</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="J228" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>23</v>
-      </c>
-      <c r="C229" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E229" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F229" t="n">
-        <v>71273.4238</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1664181.546893272</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="J229" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8064,9 +7986,7 @@
       <c r="I230" t="n">
         <v>23.1</v>
       </c>
-      <c r="J230" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8105,9 +8025,7 @@
       <c r="I231" t="n">
         <v>23.1</v>
       </c>
-      <c r="J231" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8146,9 +8064,7 @@
       <c r="I232" t="n">
         <v>23</v>
       </c>
-      <c r="J232" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8187,9 +8103,7 @@
       <c r="I233" t="n">
         <v>23.1</v>
       </c>
-      <c r="J233" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8228,9 +8142,7 @@
       <c r="I234" t="n">
         <v>23.1</v>
       </c>
-      <c r="J234" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8264,14 +8176,10 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J235" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8305,14 +8213,10 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J236" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8346,14 +8250,10 @@
         <v>-1316993.865993272</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J237" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8387,14 +8287,10 @@
         <v>-1319905.864993272</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J238" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8431,9 +8327,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8470,9 +8364,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,9 +8401,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,9 +8438,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,9 +8475,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,9 +8512,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8665,9 +8549,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8704,9 +8586,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8743,9 +8623,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8782,9 +8660,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8821,9 +8697,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,9 +8734,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,9 +8771,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,9 +8808,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8977,9 +8845,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,9 +8882,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,9 +8919,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9094,9 +8956,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9133,9 +8993,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,9 +9030,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9211,9 +9067,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9250,9 +9104,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9289,9 +9141,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9328,9 +9178,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9367,9 +9215,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9406,9 +9252,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9445,9 +9289,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9484,9 +9326,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,9 +9363,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9562,9 +9400,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9601,9 +9437,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9640,9 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,9 +9511,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,9 +9548,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9757,9 +9585,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9796,9 +9622,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9835,9 +9659,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9874,9 +9696,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9913,9 +9733,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9952,9 +9770,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9991,9 +9807,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10030,9 +9844,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10069,9 +9881,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10108,9 +9918,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10147,9 +9955,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10186,9 +9992,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10225,9 +10029,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10264,9 +10066,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10303,9 +10103,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10342,9 +10140,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,9 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10420,9 +10214,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10459,9 +10251,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,9 +10288,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10537,9 +10325,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10576,9 +10362,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10615,9 +10399,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10654,9 +10436,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10693,9 +10473,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,9 +10510,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10771,9 +10547,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10810,9 +10584,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10849,9 +10621,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10888,9 +10658,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10927,9 +10695,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10966,9 +10732,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11005,9 +10769,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11044,9 +10806,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11083,9 +10843,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11122,9 +10880,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,9 +10917,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11200,9 +10954,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11239,9 +10991,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11278,9 +11028,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11317,9 +11065,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11356,9 +11102,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,9 +11139,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11434,9 +11176,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11473,9 +11213,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11512,9 +11250,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11551,9 +11287,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11590,9 +11324,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11629,9 +11361,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,9 +11398,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11707,9 +11435,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11746,9 +11472,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11785,9 +11509,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11824,9 +11546,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11863,9 +11583,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11902,9 +11620,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11941,9 +11657,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11980,9 +11694,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12019,9 +11731,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12058,9 +11768,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12097,9 +11805,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12136,9 +11842,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12175,9 +11879,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,9 +11916,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12253,9 +11953,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12292,9 +11990,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12331,9 +12027,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12370,9 +12064,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12409,9 +12101,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12448,9 +12138,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12487,9 +12175,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12526,9 +12212,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12565,9 +12249,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12604,9 +12286,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12643,9 +12323,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12679,20 +12357,16 @@
         <v>-928045.3107626936</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -12718,17 +12392,11 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12757,17 +12425,11 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12796,17 +12458,11 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12838,14 +12494,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12877,14 +12527,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12916,14 +12560,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12955,14 +12593,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12994,14 +12626,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13033,14 +12659,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13072,14 +12692,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13111,14 +12725,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13150,14 +12758,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13189,14 +12791,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13228,14 +12824,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13267,14 +12857,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13306,14 +12890,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13345,14 +12923,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13384,14 +12956,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13423,14 +12989,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13462,14 +13022,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13498,19 +13052,11 @@
         <v>-1597809.485862693</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J369" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13542,14 +13088,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13581,14 +13121,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13620,14 +13154,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13659,14 +13187,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13698,14 +13220,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13737,14 +13253,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13776,14 +13286,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13815,14 +13319,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13854,14 +13352,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13893,14 +13385,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13932,14 +13418,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13971,14 +13451,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14010,14 +13484,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14049,14 +13517,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14088,14 +13550,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14127,14 +13583,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14166,14 +13616,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14205,14 +13649,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14244,14 +13682,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14283,14 +13715,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14322,14 +13748,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14361,14 +13781,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14400,14 +13814,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14439,14 +13847,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14478,14 +13880,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14517,14 +13913,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14556,14 +13946,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14595,14 +13979,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14634,14 +14012,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14673,14 +14045,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14712,14 +14078,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14751,14 +14111,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14790,14 +14144,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14829,14 +14177,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14868,14 +14210,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14907,14 +14243,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14946,14 +14276,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14985,14 +14309,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15024,14 +14342,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15063,14 +14375,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15102,14 +14408,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15141,14 +14441,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15180,14 +14474,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15219,14 +14507,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15258,14 +14540,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15297,14 +14573,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15336,14 +14606,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15375,14 +14639,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15414,14 +14672,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15453,14 +14705,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15492,14 +14738,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15531,14 +14771,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15570,14 +14804,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15609,14 +14837,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15648,14 +14870,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15687,14 +14903,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15726,14 +14936,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15765,14 +14969,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15804,14 +15002,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15843,14 +15035,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15882,14 +15068,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15921,14 +15101,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15960,14 +15134,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15999,14 +15167,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16038,14 +15200,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16077,14 +15233,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16116,14 +15266,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16155,14 +15299,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16194,20 +15332,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
       <c r="M438" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest CMT.xlsx
+++ b/BackTest/2019-11-02 BackTest CMT.xlsx
@@ -451,7 +451,7 @@
         <v>365241.3210000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>303753.9403000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>309352.7016500001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>350415.42065</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>350415.42065</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>362959.6648500001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>442850.1029500001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>375159.9923500001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>449274.6132500001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>348319.95615</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>254121.36155</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>254121.36155</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>349694.91475</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>349054.63285</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>216687.10645</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>216687.10645</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>617185.31775</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>987190.3952309524</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>512980.2174309524</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>519947.5554309524</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>510769.0248309524</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-380576.2155690476</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -7876,10 +7876,14 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>23</v>
+      </c>
+      <c r="J227" t="n">
+        <v>23</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
@@ -7909,11 +7913,19 @@
         <v>-1664181.546893272</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>23</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7947,10 +7959,12 @@
       <c r="I229" t="n">
         <v>23.1</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>23</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -7986,7 +8000,9 @@
       <c r="I230" t="n">
         <v>23.1</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>23</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8025,7 +8041,9 @@
       <c r="I231" t="n">
         <v>23.1</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>23</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8064,7 +8082,9 @@
       <c r="I232" t="n">
         <v>23</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>23</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,7 +8123,9 @@
       <c r="I233" t="n">
         <v>23.1</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>23</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,7 +8164,9 @@
       <c r="I234" t="n">
         <v>23.1</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>23</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,10 +8200,14 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="J235" t="n">
+        <v>23</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8213,10 +8241,14 @@
         <v>-1318327.610593272</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J236" t="n">
+        <v>23</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,10 +8282,14 @@
         <v>-1316993.865993272</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J237" t="n">
+        <v>23</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8287,10 +8323,14 @@
         <v>-1319905.864993272</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J238" t="n">
+        <v>23</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8324,10 +8364,14 @@
         <v>-1295918.966693272</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J239" t="n">
+        <v>23</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8361,10 +8405,14 @@
         <v>-1287211.034293272</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J240" t="n">
+        <v>23</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8401,7 +8449,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>23</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,7 +8488,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>23</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8472,10 +8524,14 @@
         <v>-1366195.581293272</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J243" t="n">
+        <v>23</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,10 +8565,14 @@
         <v>-1366195.581293272</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J244" t="n">
+        <v>23</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8546,10 +8606,14 @@
         <v>-1366195.581293272</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J245" t="n">
+        <v>23</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8586,7 +8650,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>23</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8623,7 +8689,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>23</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,7 +8728,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>23</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8697,7 +8767,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>23</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8734,7 +8806,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>23</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8771,7 +8845,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>23</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8808,7 +8884,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>23</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8845,7 +8923,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>23</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8882,7 +8962,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>23</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8919,7 +9001,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>23</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8956,7 +9040,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>23</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8993,7 +9079,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>23</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9030,7 +9118,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>23</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,7 +9157,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>23</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9104,7 +9196,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>23</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9141,7 +9235,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>23</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9175,10 +9271,14 @@
         <v>-1633550.758493272</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J262" t="n">
+        <v>23</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9212,10 +9312,14 @@
         <v>-1233550.758493272</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J263" t="n">
+        <v>23</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9249,10 +9353,14 @@
         <v>-1213350.758493272</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J264" t="n">
+        <v>23</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9289,7 +9397,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>23</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9323,10 +9433,14 @@
         <v>-1247353.628993272</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J266" t="n">
+        <v>23</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9360,10 +9474,14 @@
         <v>-1247353.628993272</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J267" t="n">
+        <v>23</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9397,10 +9515,14 @@
         <v>-1242070.486093272</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J268" t="n">
+        <v>23</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9434,10 +9556,14 @@
         <v>-1242070.486093272</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J269" t="n">
+        <v>23</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9471,10 +9597,14 @@
         <v>-981070.486093272</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J270" t="n">
+        <v>23</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9508,10 +9638,14 @@
         <v>-983987.098693272</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J271" t="n">
+        <v>23</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9545,10 +9679,14 @@
         <v>-983987.098693272</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J272" t="n">
+        <v>23</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9582,10 +9720,14 @@
         <v>-983987.098693272</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J273" t="n">
+        <v>23</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9619,10 +9761,14 @@
         <v>-953987.098693272</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J274" t="n">
+        <v>23</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9659,7 +9805,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>23</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9696,7 +9844,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>23</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9733,7 +9883,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>23</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9770,7 +9922,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>23</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,7 +9961,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>23</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9844,7 +10000,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>23</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9881,7 +10039,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>23</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9918,7 +10078,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>23</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9955,7 +10117,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>23</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9992,7 +10156,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>23</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10029,7 +10195,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>23</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10066,7 +10234,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>23</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,7 +10273,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>23</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10140,7 +10312,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>23</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10177,7 +10351,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>23</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10214,7 +10390,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>23</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10251,7 +10429,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>23</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10288,7 +10468,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>23</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10325,7 +10507,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>23</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10362,7 +10546,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>23</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10399,7 +10585,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>23</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10436,7 +10624,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>23</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10473,7 +10663,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>23</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10510,7 +10702,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>23</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10547,7 +10741,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>23</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10584,7 +10780,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>23</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10621,7 +10819,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>23</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,7 +10858,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>23</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10695,7 +10897,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>23</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,7 +10936,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>23</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10769,7 +10975,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>23</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10806,7 +11014,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>23</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10843,7 +11053,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>23</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10880,7 +11092,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>23</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10917,7 +11131,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>23</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10954,7 +11170,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>23</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10991,7 +11209,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>23</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11028,7 +11248,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>23</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11065,7 +11287,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>23</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,7 +11326,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>23</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11139,7 +11365,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>23</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11176,7 +11404,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>23</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11213,7 +11443,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>23</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11250,7 +11482,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>23</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11287,7 +11521,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>23</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11324,7 +11560,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>23</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11361,7 +11599,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>23</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11398,7 +11638,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>23</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11435,7 +11677,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>23</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11472,7 +11716,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>23</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11509,7 +11755,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>23</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11546,7 +11794,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>23</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11583,7 +11833,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>23</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11620,7 +11872,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>23</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11657,7 +11911,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>23</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11694,7 +11950,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>23</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11731,7 +11989,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>23</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11768,7 +12028,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>23</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11805,7 +12067,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>23</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11842,7 +12106,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>23</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11879,7 +12145,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>23</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11916,7 +12184,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>23</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11953,7 +12223,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>23</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11990,7 +12262,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>23</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12027,7 +12301,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>23</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12064,7 +12340,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>23</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12101,7 +12379,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>23</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12138,7 +12418,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>23</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12175,7 +12457,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>23</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12212,7 +12496,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>23</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12249,7 +12535,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>23</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12286,7 +12574,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>23</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12323,7 +12613,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>23</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12357,16 +12649,20 @@
         <v>-928045.3107626936</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>23</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L348" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
       <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -12392,11 +12688,17 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>23</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12425,11 +12727,17 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>23</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12458,11 +12766,17 @@
         <v>-913582.5008626936</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>23</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12494,8 +12808,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>23</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12527,8 +12847,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>23</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12560,8 +12886,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>23</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12593,8 +12925,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>23</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12626,8 +12964,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>23</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12659,8 +13003,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>23</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12692,8 +13042,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>23</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12725,8 +13081,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>23</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12758,8 +13120,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>23</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12791,8 +13159,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>23</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12824,8 +13198,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>23</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12857,8 +13237,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>23</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12890,8 +13276,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>23</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12923,8 +13315,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>23</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12956,8 +13354,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>23</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12989,8 +13393,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>23</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13022,8 +13432,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>23</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13055,8 +13471,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>23</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13088,8 +13510,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>23</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13121,8 +13549,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>23</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13154,8 +13588,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>23</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13187,8 +13627,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>23</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13220,8 +13666,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>23</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13253,8 +13705,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>23</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13286,8 +13744,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>23</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13319,8 +13783,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>23</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13352,8 +13822,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>23</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13385,8 +13861,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>23</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13418,8 +13900,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>23</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13451,8 +13939,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>23</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13484,8 +13978,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>23</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13517,8 +14017,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>23</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13550,8 +14056,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>23</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13583,8 +14095,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>23</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13616,8 +14134,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>23</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13649,8 +14173,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>23</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13682,8 +14212,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>23</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13715,8 +14251,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>23</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13748,8 +14290,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>23</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13781,8 +14329,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>23</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13814,8 +14368,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>23</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13847,8 +14407,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>23</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13880,8 +14446,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>23</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13913,8 +14485,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>23</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13946,8 +14524,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>23</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13979,8 +14563,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>23</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14012,8 +14602,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>23</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14045,8 +14641,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>23</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14078,8 +14680,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>23</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14111,8 +14719,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>23</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14144,8 +14758,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>23</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14177,8 +14797,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>23</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14210,8 +14836,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>23</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14243,8 +14875,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>23</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14276,8 +14914,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>23</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14309,8 +14953,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>23</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14342,8 +14992,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>23</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14375,8 +15031,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>23</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14408,8 +15070,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>23</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14441,8 +15109,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>23</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14474,8 +15148,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>23</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14507,8 +15187,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>23</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14540,8 +15226,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>23</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14573,8 +15265,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>23</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14606,8 +15304,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>23</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14639,8 +15343,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>23</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14672,8 +15382,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>23</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14705,8 +15421,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>23</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14738,8 +15460,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>23</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14771,8 +15499,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>23</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14804,8 +15538,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>23</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14837,8 +15577,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>23</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14870,8 +15616,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>23</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14903,8 +15655,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>23</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14936,8 +15694,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>23</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14969,8 +15733,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>23</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15002,8 +15772,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>23</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15035,8 +15811,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>23</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15068,8 +15850,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>23</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15101,8 +15889,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>23</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15134,8 +15928,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>23</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15167,8 +15967,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>23</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15200,8 +16006,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>23</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15233,8 +16045,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>23</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15266,8 +16084,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>23</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15299,8 +16123,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>23</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15332,8 +16162,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>23</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
